--- a/biology/Histoire de la zoologie et de la botanique/Hermann_Gisin/Hermann_Gisin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_Gisin/Hermann_Gisin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Gisin, né le 11 mars 1917 à Montreux (Vaud) et mort le 16 août 1967 à Genève, est un entomologiste suisse. Il travaille au Muséum d'histoire naturelle de Genève de 1943 à 1967 où il étudie les collemboles et les protoures.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxons dédiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs genres sont dédiés à Hermann Gisin :
 Gisinianus Betsch, 1977
@@ -564,13 +578,15 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Gisin a décrit deux genres de collemboles :
 Fasciosminthurus Gisin, 1960
 Ancistracanthella Gisin, 1949
 Une espèce de pauropodes :
-Asphaeridiopus trilobatus Gisin, 1947, considéré comme nomen nudum[1]
+Asphaeridiopus trilobatus Gisin, 1947, considéré comme nomen nudum
 Ainsi que 231 espèces, sous-espèces et formes de collemboles et de protoures :
 Acerentulus confinis alpinus Gisin, 1945
 Acerentulus filisensillatus Gisin, 1945
